--- a/TrackList.xlsx
+++ b/TrackList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Team-Code_Life\mefado-v1\refactoring-v1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Team-Code_Life\mefado-ui-design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1549DDE-5044-4508-AF50-C115855D4848}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741C2469-CC70-4643-AB39-E6DA62840FB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27990" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{279BB581-13DC-4C67-A208-ECEAEC5F3134}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{279BB581-13DC-4C67-A208-ECEAEC5F3134}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>Outcomes</t>
   </si>
@@ -143,7 +143,13 @@
     <t>Đăng nhập</t>
   </si>
   <si>
-    <t>Đăng ký</t>
+    <t>Sketch</t>
+  </si>
+  <si>
+    <t>Wireframe</t>
+  </si>
+  <si>
+    <t>High Fidelity</t>
   </si>
 </sst>
 </file>
@@ -270,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -293,56 +299,94 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -660,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95DB2D2-227C-4DF4-891D-B90556287239}">
-  <dimension ref="B1:M15"/>
+  <dimension ref="B1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="52.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -675,45 +719,57 @@
     <col min="5" max="5" width="73.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="52.5703125" style="2"/>
+    <col min="12" max="12" width="35.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="52.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="11" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="11" t="s">
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="16"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="21"/>
       <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
@@ -729,159 +785,207 @@
       <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>6</v>
+      <c r="H3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+      <c r="M3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="15"/>
+      <c r="F4" s="20"/>
       <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="K4" s="3"/>
+      <c r="L4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="10"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="14"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="23"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="19"/>
       <c r="G5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="K5" s="3"/>
+      <c r="L5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="20" t="s">
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="14"/>
+      <c r="F6" s="19"/>
       <c r="G6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="K6" s="3"/>
+      <c r="L6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="20"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="14"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="19"/>
       <c r="G7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="K7" s="3"/>
+      <c r="L7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="17" t="s">
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
       <c r="G8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="K8" s="1"/>
+      <c r="L8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
       <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
       <c r="G9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>27</v>
       </c>
@@ -891,35 +995,38 @@
       <c r="G10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H13" s="2" t="s">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="L12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="J13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="Q13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="F15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:R2"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="B2:B3"/>
@@ -928,13 +1035,13 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
   </mergeCells>
-  <conditionalFormatting sqref="H4:I1048576 K4:L1048576">
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Hoàn tất">
-      <formula>NOT(ISERROR(SEARCH("Hoàn tất",H4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/TrackList.xlsx
+++ b/TrackList.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Team-Code_Life\mefado-ui-design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Team-Code_Life\mefado-ui-design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741C2469-CC70-4643-AB39-E6DA62840FB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9907E1BB-891A-48FC-B51A-E890356C5093}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{279BB581-13DC-4C67-A208-ECEAEC5F3134}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="1" xr2:uid="{279BB581-13DC-4C67-A208-ECEAEC5F3134}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,8 +31,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={4AAD9B8F-E9BD-4680-906A-9105170F1E9B}</author>
+  </authors>
+  <commentList>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{4AAD9B8F-E9BD-4680-906A-9105170F1E9B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Màu cam là các Outcome cho môn SE215</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="141">
   <si>
     <t>Outcomes</t>
   </si>
@@ -61,15 +80,6 @@
 Từ đó tạo được sự tin tưởng giữ người đọc với người cung cấp thông tin.</t>
   </si>
   <si>
-    <t>Hoàn tất</t>
-  </si>
-  <si>
-    <t>SCR04</t>
-  </si>
-  <si>
-    <t>SCR05</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -98,36 +108,6 @@
 Từ đó cung cấp thông tin nhằm giúp hệ thống có thể cá nhân hóa nội dung cho họ.</t>
   </si>
   <si>
-    <t>SCR06</t>
-  </si>
-  <si>
-    <t>SCR07</t>
-  </si>
-  <si>
-    <t>NOR01</t>
-  </si>
-  <si>
-    <t>Đăng nhập và đăng ký</t>
-  </si>
-  <si>
-    <t>SCR01</t>
-  </si>
-  <si>
-    <t>SCR02</t>
-  </si>
-  <si>
-    <t>NOR02</t>
-  </si>
-  <si>
-    <t>Các tùy chọn tài khoản và cài đặt</t>
-  </si>
-  <si>
-    <t>SCR03</t>
-  </si>
-  <si>
-    <t>Mô tả</t>
-  </si>
-  <si>
     <t>Xem thông tin hồ sơ cá nhân công khai</t>
   </si>
   <si>
@@ -150,13 +130,361 @@
   </si>
   <si>
     <t>High Fidelity</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Đăng ký</t>
+  </si>
+  <si>
+    <t>Tùy chọn tài khoản và cài đặt</t>
+  </si>
+  <si>
+    <t>OUT03</t>
+  </si>
+  <si>
+    <t>khám phá, xem các bài đăng của hệ thống dự trên các đề xuất. 
+Các bài đăng đề xuất được dự trên những phân loại có sẵn của hệ thống.</t>
+  </si>
+  <si>
+    <t>OUT04</t>
+  </si>
+  <si>
+    <t>Nhân viên (bận rộn)</t>
+  </si>
+  <si>
+    <t>OUT05</t>
+  </si>
+  <si>
+    <t>họ có thể tìm lại nội dung hoặc tiếp tục cuộc trò chuyện với khách hàng một cách nhanh chóng, dễ dàng.
+Mỗi cuộc trò chuyện tương ứng với một cặp khách hàng với bài đăng cụ thể đang nói tới</t>
+  </si>
+  <si>
+    <t>họ có thể tìm lại các bài đăng đã lưu trước đó, nhằm tiết kiệm thời gian cho việc xem lại một bài đăng quan trọng.
+Cung cấp khả năng tổ chức thành các collection (bộ sưu tập) cho dễ dàng quản lý các bài đăng đã lưu.</t>
+  </si>
+  <si>
+    <t>OUT06</t>
+  </si>
+  <si>
+    <t>OUT07</t>
+  </si>
+  <si>
+    <t>OUT08</t>
+  </si>
+  <si>
+    <t>Xem chi tiết bài đăng rao bán nhà riêng</t>
+  </si>
+  <si>
+    <t>Xem chi tiết bài đăng bất động sản</t>
+  </si>
+  <si>
+    <t>Tên màn hình</t>
+  </si>
+  <si>
+    <t>Xem tiến độ nhập dữ liệu cho bài đăng</t>
+  </si>
+  <si>
+    <t>Tạo bài đăng bất động sản mới</t>
+  </si>
+  <si>
+    <t>Nhập thông tin loại hình kinh doanh cho bài đăng</t>
+  </si>
+  <si>
+    <t>Nhập thông tin cấu trúc phòng</t>
+  </si>
+  <si>
+    <t>Nhập thông tin cấu trúc nhà</t>
+  </si>
+  <si>
+    <t>Nhập thông tin vị trí bất động sản</t>
+  </si>
+  <si>
+    <t>Nhập thông tin các tiện ích xung quanh</t>
+  </si>
+  <si>
+    <t>Nhập thông tin hình ảnh minh họa</t>
+  </si>
+  <si>
+    <t>Nhập thông tin tiêu đề và mô tả bài đăng</t>
+  </si>
+  <si>
+    <t>Nhập thông tin giá cả cho thuê</t>
+  </si>
+  <si>
+    <t>Nhập thông tin giá cả rao bán</t>
+  </si>
+  <si>
+    <t>Nhập thông tin lịch hẹn xem nhà/phòng</t>
+  </si>
+  <si>
+    <t>Xem chi tiết bài đăng cho thuê phòng trọ</t>
+  </si>
+  <si>
+    <t>Xem chi tiết bài đăng tìm bạn ở ghép</t>
+  </si>
+  <si>
+    <t>Xem chi tiết lịch hẹn xem nhà/phòng đã lên kế hoạch</t>
+  </si>
+  <si>
+    <t>Các màn hình bổ trợ</t>
+  </si>
+  <si>
+    <t>Yêu cầu đăng nhập để sử dụng</t>
+  </si>
+  <si>
+    <t>Xem DS các bài đăng đã lưu</t>
+  </si>
+  <si>
+    <t>Khám phá DS các bài đăng</t>
+  </si>
+  <si>
+    <t>Xem DS các bài đăng theo phân loại có sẵn</t>
+  </si>
+  <si>
+    <t>Xem DS các bài đăng theo dạng DS</t>
+  </si>
+  <si>
+    <t>Xem DS các cuộc trò chuyện với khách hàng</t>
+  </si>
+  <si>
+    <t>Xem DS bài đăng (map view)</t>
+  </si>
+  <si>
+    <t>Quản lý DS các bài đăng của mình</t>
+  </si>
+  <si>
+    <t>Xem DS các bài đăng của mình</t>
+  </si>
+  <si>
+    <t>Xem DS lựa chọn các tạo mới bài đăng</t>
+  </si>
+  <si>
+    <t>Quản lý DS các lịch hẹn xem nhà/phòng</t>
+  </si>
+  <si>
+    <t>Xem DS các lịch hẹn xem nhà/phòng đã lên kế hoạch</t>
+  </si>
+  <si>
+    <t>Xem DS các bộ sưu tập hiện có</t>
+  </si>
+  <si>
+    <t>Xem DS các bài đăng trong bộ sưu tập</t>
+  </si>
+  <si>
+    <t>Xem DS các cuộc trò chuyện (với khách hàng)</t>
+  </si>
+  <si>
+    <t>Modal Đăng nhập</t>
+  </si>
+  <si>
+    <t>Modal Đăng ký</t>
+  </si>
+  <si>
+    <t>OUT01-01-M</t>
+  </si>
+  <si>
+    <t>OUT01-02-M</t>
+  </si>
+  <si>
+    <t>OUT02-01-M</t>
+  </si>
+  <si>
+    <t>OUT02-02-M</t>
+  </si>
+  <si>
+    <t>OUT03-01-M</t>
+  </si>
+  <si>
+    <t>OUT03-02-M</t>
+  </si>
+  <si>
+    <t>OUT04-01-M</t>
+  </si>
+  <si>
+    <t>OUT04-02-M</t>
+  </si>
+  <si>
+    <t>OUT01-01-D</t>
+  </si>
+  <si>
+    <t>OUT01-02-D</t>
+  </si>
+  <si>
+    <t>OUT02-02-D</t>
+  </si>
+  <si>
+    <t>OUT02-01-D</t>
+  </si>
+  <si>
+    <t>OUT03-02-D</t>
+  </si>
+  <si>
+    <t>OUT03-01-D</t>
+  </si>
+  <si>
+    <t>OUT04-01-D</t>
+  </si>
+  <si>
+    <t>OUT04-02-D</t>
+  </si>
+  <si>
+    <t>OUT05-01-D</t>
+  </si>
+  <si>
+    <t>OUT05-01-M</t>
+  </si>
+  <si>
+    <t>EXT01-01-M</t>
+  </si>
+  <si>
+    <t>EXT01-02-M</t>
+  </si>
+  <si>
+    <t>EXT01-03-M</t>
+  </si>
+  <si>
+    <t>EXT01-04-M</t>
+  </si>
+  <si>
+    <t>EXT01-05-M</t>
+  </si>
+  <si>
+    <t>EXT01-01-D</t>
+  </si>
+  <si>
+    <t>EXT01-04-D</t>
+  </si>
+  <si>
+    <t>EXT01-03-D</t>
+  </si>
+  <si>
+    <t>EXT01-02-D</t>
+  </si>
+  <si>
+    <t>OUT06-01-M</t>
+  </si>
+  <si>
+    <t>OUT06-01-D</t>
+  </si>
+  <si>
+    <t>OUT07-01-M</t>
+  </si>
+  <si>
+    <t>OUT07-02-M</t>
+  </si>
+  <si>
+    <t>OUT07-03-M</t>
+  </si>
+  <si>
+    <t>OUT07-04-M</t>
+  </si>
+  <si>
+    <t>OUT07-05-M</t>
+  </si>
+  <si>
+    <t>OUT07-06-M</t>
+  </si>
+  <si>
+    <t>OUT07-07-M</t>
+  </si>
+  <si>
+    <t>OUT07-08-M</t>
+  </si>
+  <si>
+    <t>OUT07-09-M</t>
+  </si>
+  <si>
+    <t>OUT07-10-M</t>
+  </si>
+  <si>
+    <t>OUT07-11-M</t>
+  </si>
+  <si>
+    <t>OUT07-12-M</t>
+  </si>
+  <si>
+    <t>OUT08-01-M</t>
+  </si>
+  <si>
+    <t>OUT08-02-M</t>
+  </si>
+  <si>
+    <t>OUT09-01-M</t>
+  </si>
+  <si>
+    <t>OUT09-02-M</t>
+  </si>
+  <si>
+    <t>OUT09-03-M</t>
+  </si>
+  <si>
+    <t>OUT07-01-D</t>
+  </si>
+  <si>
+    <t>OUT07-02-D</t>
+  </si>
+  <si>
+    <t>OUT07-03-D</t>
+  </si>
+  <si>
+    <t>OUT07-04-D</t>
+  </si>
+  <si>
+    <t>OUT07-05-D</t>
+  </si>
+  <si>
+    <t>OUT07-06-D</t>
+  </si>
+  <si>
+    <t>OUT07-07-D</t>
+  </si>
+  <si>
+    <t>OUT07-08-D</t>
+  </si>
+  <si>
+    <t>OUT07-09-D</t>
+  </si>
+  <si>
+    <t>OUT07-10-D</t>
+  </si>
+  <si>
+    <t>OUT07-11-D</t>
+  </si>
+  <si>
+    <t>OUT07-12-D</t>
+  </si>
+  <si>
+    <t>OUT08-01-D</t>
+  </si>
+  <si>
+    <t>OUT08-02-D</t>
+  </si>
+  <si>
+    <t>OUT09-01-D</t>
+  </si>
+  <si>
+    <t>OUT09-02-D</t>
+  </si>
+  <si>
+    <t>OUT09-03-D</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>EXT01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +504,26 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -185,7 +533,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -272,11 +620,132 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -284,117 +753,188 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -405,6 +945,815 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="321509512"/>
+        <c:axId val="321510824"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="321509512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="321510824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="321510824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="321509512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{39BBA321-21E2-4E59-B539-6EC226386CB0}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="127" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9307500" cy="6082500"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40C957EA-8AFB-480F-9F8D-5689ADBE40AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Tiến Đạt Nguyễn" id="{AA622308-0215-419E-8CBA-E64255CEB820}" userId="6a2db364e3ef1149" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -702,34 +2051,42 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B4" dT="2019-11-30T13:48:21.59" personId="{AA622308-0215-419E-8CBA-E64255CEB820}" id="{4AAD9B8F-E9BD-4680-906A-9105170F1E9B}">
+    <text>Màu cam là các Outcome cho môn SE215</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95DB2D2-227C-4DF4-891D-B90556287239}">
-  <dimension ref="B1:S15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95DB2D2-227C-4DF4-891D-B90556287239}">
+  <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="52.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="73.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="35.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="100" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="34" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.85546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="34" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="47" style="5" customWidth="1"/>
     <col min="19" max="16384" width="52.5703125" style="2"/>
   </cols>
   <sheetData>
@@ -741,291 +2098,1313 @@
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="16" t="s">
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="16" t="s">
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="18"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="50"/>
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="21"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="53"/>
+      <c r="G4" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="K4" s="32"/>
+      <c r="L4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="59"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="K5" s="31"/>
+      <c r="L5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="E6" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="51"/>
+      <c r="G6" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B7" s="59"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="K7" s="31"/>
+      <c r="L7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="41"/>
+      <c r="G8" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="45"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="F10" s="41"/>
+      <c r="G10" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="R10" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="45"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="M12" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="41"/>
+      <c r="G13" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="K13" s="27"/>
+      <c r="L13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="N13" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="O13" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="S13" s="1"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="36"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="K14" s="28"/>
+      <c r="L14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N14" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="O14" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="36"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="K15" s="28"/>
+      <c r="L15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N15" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="O15" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="36"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M16" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="61"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B17" s="36"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="N17" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="O17" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B18" s="37"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="O18" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="18"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="C19" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="M19" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="N19" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="O19" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="P3" s="8" t="s">
+      <c r="C20" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="38"/>
+      <c r="G20" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="M20" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="N20" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="O20" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N21" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="O21" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N22" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="O22" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="N23" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="O23" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="S23" s="1"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B24" s="36"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N24" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="O24" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B25" s="36"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="N25" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="O25" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S25" s="1"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B26" s="36"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="N26" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="O26" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B27" s="36"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H27" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N27" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="O27" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B28" s="36"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="N28" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="O28" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B29" s="36"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H29" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N29" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="O29" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B30" s="36"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H30" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I30" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N30" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="O30" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B31" s="37"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="H31" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="M31" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="N31" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="O31" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B32" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="S3" s="1"/>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B4" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="1"/>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="23"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="1"/>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="1"/>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="1"/>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="S8" s="1"/>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="L12" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="J13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="F15" s="2" t="s">
-        <v>12</v>
+      <c r="C32" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="41"/>
+      <c r="G32" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H32" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="I32" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="M32" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="N32" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="O32" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B33" s="37"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="H33" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="M33" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="N33" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="O33" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B34" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="41"/>
+      <c r="G34" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="H34" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="I34" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="M34" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="N34" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="O34" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B35" s="36"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H35" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I35" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="N35" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="O35" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B36" s="37"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="H36" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="I36" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="M36" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="N36" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="O36" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="18" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="45">
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F20:F31"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B8:B9"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
     <mergeCell ref="M2:R2"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="F4:F5"/>
@@ -1036,13 +3415,27 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="G2:L2"/>
+    <mergeCell ref="E6:E7"/>
     <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E8:E9"/>
     <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="B20:B31"/>
+    <mergeCell ref="C20:C31"/>
+    <mergeCell ref="D20:D31"/>
+    <mergeCell ref="E20:E31"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="B13:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/TrackList.xlsx
+++ b/TrackList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Team-Code_Life\mefado-ui-design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9907E1BB-891A-48FC-B51A-E890356C5093}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E884F5C9-5141-4639-A05B-09D9E825EE7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="1" xr2:uid="{279BB581-13DC-4C67-A208-ECEAEC5F3134}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="114">
   <si>
     <t>Outcomes</t>
   </si>
@@ -309,33 +309,6 @@
     <t>OUT04-02-M</t>
   </si>
   <si>
-    <t>OUT01-01-D</t>
-  </si>
-  <si>
-    <t>OUT01-02-D</t>
-  </si>
-  <si>
-    <t>OUT02-02-D</t>
-  </si>
-  <si>
-    <t>OUT02-01-D</t>
-  </si>
-  <si>
-    <t>OUT03-02-D</t>
-  </si>
-  <si>
-    <t>OUT03-01-D</t>
-  </si>
-  <si>
-    <t>OUT04-01-D</t>
-  </si>
-  <si>
-    <t>OUT04-02-D</t>
-  </si>
-  <si>
-    <t>OUT05-01-D</t>
-  </si>
-  <si>
     <t>OUT05-01-M</t>
   </si>
   <si>
@@ -354,24 +327,9 @@
     <t>EXT01-05-M</t>
   </si>
   <si>
-    <t>EXT01-01-D</t>
-  </si>
-  <si>
-    <t>EXT01-04-D</t>
-  </si>
-  <si>
-    <t>EXT01-03-D</t>
-  </si>
-  <si>
-    <t>EXT01-02-D</t>
-  </si>
-  <si>
     <t>OUT06-01-M</t>
   </si>
   <si>
-    <t>OUT06-01-D</t>
-  </si>
-  <si>
     <t>OUT07-01-M</t>
   </si>
   <si>
@@ -423,61 +381,22 @@
     <t>OUT09-03-M</t>
   </si>
   <si>
-    <t>OUT07-01-D</t>
-  </si>
-  <si>
-    <t>OUT07-02-D</t>
-  </si>
-  <si>
-    <t>OUT07-03-D</t>
-  </si>
-  <si>
-    <t>OUT07-04-D</t>
-  </si>
-  <si>
-    <t>OUT07-05-D</t>
-  </si>
-  <si>
-    <t>OUT07-06-D</t>
-  </si>
-  <si>
-    <t>OUT07-07-D</t>
-  </si>
-  <si>
-    <t>OUT07-08-D</t>
-  </si>
-  <si>
-    <t>OUT07-09-D</t>
-  </si>
-  <si>
-    <t>OUT07-10-D</t>
-  </si>
-  <si>
-    <t>OUT07-11-D</t>
-  </si>
-  <si>
-    <t>OUT07-12-D</t>
-  </si>
-  <si>
-    <t>OUT08-01-D</t>
-  </si>
-  <si>
-    <t>OUT08-02-D</t>
-  </si>
-  <si>
-    <t>OUT09-01-D</t>
-  </si>
-  <si>
-    <t>OUT09-02-D</t>
-  </si>
-  <si>
-    <t>OUT09-03-D</t>
-  </si>
-  <si>
     <t>done</t>
   </si>
   <si>
     <t>EXT01</t>
+  </si>
+  <si>
+    <t>EXT01-06-M</t>
+  </si>
+  <si>
+    <t>Sửa thông tin bộ sưu tập</t>
+  </si>
+  <si>
+    <t>Xem DS các bài đăng (list view)</t>
+  </si>
+  <si>
+    <t>Xem DS các bài đăng (map view)</t>
   </si>
 </sst>
 </file>
@@ -745,7 +664,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -926,9 +845,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2063,8 +1979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95DB2D2-227C-4DF4-891D-B90556287239}">
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="52.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2195,19 +2111,17 @@
         <v>76</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="I4" s="32"/>
       <c r="J4" s="32" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="K4" s="32"/>
       <c r="L4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="9" t="s">
-        <v>84</v>
-      </c>
+      <c r="M4" s="9"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
       <c r="P4" s="32"/>
@@ -2227,19 +2141,17 @@
         <v>77</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="I5" s="31"/>
       <c r="J5" s="31" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="K5" s="31"/>
       <c r="L5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="11" t="s">
-        <v>85</v>
-      </c>
+      <c r="M5" s="11"/>
       <c r="N5" s="31"/>
       <c r="O5" s="31"/>
       <c r="P5" s="31"/>
@@ -2267,19 +2179,17 @@
         <v>78</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="I6" s="30"/>
       <c r="J6" s="30" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="K6" s="30"/>
       <c r="L6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="13" t="s">
-        <v>87</v>
-      </c>
+      <c r="M6" s="13"/>
       <c r="N6" s="30"/>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
@@ -2299,19 +2209,17 @@
         <v>79</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="I7" s="31"/>
       <c r="J7" s="31" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="K7" s="31"/>
       <c r="L7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="11" t="s">
-        <v>86</v>
-      </c>
+      <c r="M7" s="11"/>
       <c r="N7" s="31"/>
       <c r="O7" s="31"/>
       <c r="P7" s="31"/>
@@ -2340,14 +2248,14 @@
       </c>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
+      <c r="J8" s="27" t="s">
+        <v>108</v>
+      </c>
       <c r="K8" s="27"/>
       <c r="L8" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="M8" s="13" t="s">
-        <v>89</v>
-      </c>
+      <c r="M8" s="13"/>
       <c r="N8" s="27"/>
       <c r="O8" s="27" t="s">
         <v>9</v>
@@ -2369,14 +2277,14 @@
       </c>
       <c r="H9" s="29"/>
       <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
+      <c r="J9" s="29" t="s">
+        <v>108</v>
+      </c>
       <c r="K9" s="29"/>
       <c r="L9" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>88</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="M9" s="11"/>
       <c r="N9" s="29"/>
       <c r="O9" s="29"/>
       <c r="P9" s="29"/>
@@ -2405,7 +2313,7 @@
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
       <c r="J10" s="27" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="K10" s="27" t="s">
         <v>10</v>
@@ -2413,9 +2321,7 @@
       <c r="L10" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="M10" s="13" t="s">
-        <v>90</v>
-      </c>
+      <c r="M10" s="13"/>
       <c r="N10" s="27"/>
       <c r="O10" s="27"/>
       <c r="P10" s="27"/>
@@ -2437,14 +2343,14 @@
       </c>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
+      <c r="J11" s="29" t="s">
+        <v>108</v>
+      </c>
       <c r="K11" s="29"/>
       <c r="L11" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="M11" s="11" t="s">
-        <v>91</v>
-      </c>
+      <c r="M11" s="11"/>
       <c r="N11" s="29"/>
       <c r="O11" s="29"/>
       <c r="P11" s="29"/>
@@ -2468,18 +2374,18 @@
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="22" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
+      <c r="J12" s="26" t="s">
+        <v>108</v>
+      </c>
       <c r="K12" s="26"/>
       <c r="L12" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="M12" s="22" t="s">
-        <v>92</v>
-      </c>
+      <c r="M12" s="22"/>
       <c r="N12" s="26"/>
       <c r="O12" s="26"/>
       <c r="P12" s="26"/>
@@ -2490,7 +2396,7 @@
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" s="35" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="C13" s="38" t="s">
         <v>58</v>
@@ -2503,7 +2409,7 @@
       </c>
       <c r="F13" s="41"/>
       <c r="G13" s="15" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="H13" s="27" t="s">
         <v>27</v>
@@ -2512,15 +2418,13 @@
         <v>27</v>
       </c>
       <c r="J13" s="27" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="K13" s="27"/>
       <c r="L13" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="M13" s="15" t="s">
-        <v>99</v>
-      </c>
+      <c r="M13" s="1"/>
       <c r="N13" s="27" t="s">
         <v>27</v>
       </c>
@@ -2541,7 +2445,7 @@
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
       <c r="G14" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H14" s="28" t="s">
         <v>27</v>
@@ -2550,14 +2454,11 @@
         <v>27</v>
       </c>
       <c r="J14" s="28" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="K14" s="28"/>
       <c r="L14" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="N14" s="28" t="s">
         <v>27</v>
@@ -2582,7 +2483,7 @@
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H15" s="28" t="s">
         <v>27</v>
@@ -2591,15 +2492,13 @@
         <v>27</v>
       </c>
       <c r="J15" s="28" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="K15" s="28"/>
       <c r="L15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M15" s="1" t="s">
-        <v>101</v>
-      </c>
+      <c r="M15" s="1"/>
       <c r="N15" s="28" t="s">
         <v>27</v>
       </c>
@@ -2623,7 +2522,7 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="H16" s="28" t="s">
         <v>27</v>
@@ -2631,19 +2530,18 @@
       <c r="I16" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="28"/>
+      <c r="J16" s="28" t="s">
+        <v>108</v>
+      </c>
       <c r="K16" s="28"/>
       <c r="L16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="M16" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="61"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B17" s="36"/>
@@ -2656,7 +2554,7 @@
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="H17" s="28" t="s">
         <v>27</v>
@@ -2667,11 +2565,9 @@
       <c r="J17" s="28"/>
       <c r="K17" s="28"/>
       <c r="L17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>100</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="M17" s="1"/>
       <c r="N17" s="28" t="s">
         <v>27</v>
       </c>
@@ -2694,7 +2590,9 @@
         <v>27</v>
       </c>
       <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
+      <c r="G18" s="17" t="s">
+        <v>110</v>
+      </c>
       <c r="H18" s="29" t="s">
         <v>27</v>
       </c>
@@ -2703,7 +2601,9 @@
       </c>
       <c r="J18" s="29"/>
       <c r="K18" s="29"/>
-      <c r="L18" s="17"/>
+      <c r="L18" s="17" t="s">
+        <v>111</v>
+      </c>
       <c r="M18" s="17"/>
       <c r="N18" s="29" t="s">
         <v>27</v>
@@ -2733,7 +2633,7 @@
         <v>9</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="H19" s="26" t="s">
         <v>27</v>
@@ -2746,9 +2646,7 @@
       <c r="L19" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="M19" s="22" t="s">
-        <v>104</v>
-      </c>
+      <c r="M19" s="22"/>
       <c r="N19" s="26" t="s">
         <v>27</v>
       </c>
@@ -2777,7 +2675,7 @@
       </c>
       <c r="F20" s="38"/>
       <c r="G20" s="15" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="H20" s="27" t="s">
         <v>27</v>
@@ -2790,9 +2688,7 @@
       <c r="L20" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="M20" s="15" t="s">
-        <v>122</v>
-      </c>
+      <c r="M20" s="15"/>
       <c r="N20" s="27" t="s">
         <v>27</v>
       </c>
@@ -2813,7 +2709,7 @@
       <c r="E21" s="42"/>
       <c r="F21" s="39"/>
       <c r="G21" s="1" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="H21" s="28" t="s">
         <v>27</v>
@@ -2826,9 +2722,7 @@
       <c r="L21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M21" s="1" t="s">
-        <v>123</v>
-      </c>
+      <c r="M21" s="1"/>
       <c r="N21" s="28" t="s">
         <v>27</v>
       </c>
@@ -2849,7 +2743,7 @@
       <c r="E22" s="42"/>
       <c r="F22" s="39"/>
       <c r="G22" s="1" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="H22" s="28" t="s">
         <v>27</v>
@@ -2862,9 +2756,7 @@
       <c r="L22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M22" s="1" t="s">
-        <v>124</v>
-      </c>
+      <c r="M22" s="1"/>
       <c r="N22" s="28" t="s">
         <v>27</v>
       </c>
@@ -2885,7 +2777,7 @@
       <c r="E23" s="42"/>
       <c r="F23" s="39"/>
       <c r="G23" s="1" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="H23" s="28" t="s">
         <v>27</v>
@@ -2898,9 +2790,7 @@
       <c r="L23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M23" s="1" t="s">
-        <v>125</v>
-      </c>
+      <c r="M23" s="1"/>
       <c r="N23" s="28" t="s">
         <v>27</v>
       </c>
@@ -2921,7 +2811,7 @@
       <c r="E24" s="42"/>
       <c r="F24" s="39"/>
       <c r="G24" s="1" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="H24" s="28" t="s">
         <v>27</v>
@@ -2934,9 +2824,7 @@
       <c r="L24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="M24" s="1" t="s">
-        <v>126</v>
-      </c>
+      <c r="M24" s="1"/>
       <c r="N24" s="28" t="s">
         <v>27</v>
       </c>
@@ -2956,7 +2844,7 @@
       <c r="E25" s="42"/>
       <c r="F25" s="39"/>
       <c r="G25" s="1" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="H25" s="28" t="s">
         <v>27</v>
@@ -2969,9 +2857,7 @@
       <c r="L25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M25" s="1" t="s">
-        <v>127</v>
-      </c>
+      <c r="M25" s="1"/>
       <c r="N25" s="28" t="s">
         <v>27</v>
       </c>
@@ -2992,7 +2878,7 @@
       <c r="E26" s="42"/>
       <c r="F26" s="39"/>
       <c r="G26" s="1" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="H26" s="28" t="s">
         <v>27</v>
@@ -3005,9 +2891,7 @@
       <c r="L26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M26" s="1" t="s">
-        <v>128</v>
-      </c>
+      <c r="M26" s="1"/>
       <c r="N26" s="28" t="s">
         <v>27</v>
       </c>
@@ -3027,7 +2911,7 @@
       <c r="E27" s="42"/>
       <c r="F27" s="39"/>
       <c r="G27" s="1" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="H27" s="28" t="s">
         <v>27</v>
@@ -3040,9 +2924,7 @@
       <c r="L27" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="M27" s="1" t="s">
-        <v>129</v>
-      </c>
+      <c r="M27" s="1"/>
       <c r="N27" s="28" t="s">
         <v>27</v>
       </c>
@@ -3062,7 +2944,7 @@
       <c r="E28" s="42"/>
       <c r="F28" s="39"/>
       <c r="G28" s="1" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="H28" s="28" t="s">
         <v>27</v>
@@ -3075,9 +2957,7 @@
       <c r="L28" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M28" s="1" t="s">
-        <v>130</v>
-      </c>
+      <c r="M28" s="1"/>
       <c r="N28" s="28" t="s">
         <v>27</v>
       </c>
@@ -3097,7 +2977,7 @@
       <c r="E29" s="42"/>
       <c r="F29" s="39"/>
       <c r="G29" s="1" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="H29" s="28" t="s">
         <v>27</v>
@@ -3110,9 +2990,7 @@
       <c r="L29" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="M29" s="1" t="s">
-        <v>131</v>
-      </c>
+      <c r="M29" s="1"/>
       <c r="N29" s="28" t="s">
         <v>27</v>
       </c>
@@ -3132,7 +3010,7 @@
       <c r="E30" s="42"/>
       <c r="F30" s="39"/>
       <c r="G30" s="1" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="H30" s="28" t="s">
         <v>27</v>
@@ -3145,9 +3023,7 @@
       <c r="L30" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M30" s="1" t="s">
-        <v>132</v>
-      </c>
+      <c r="M30" s="1"/>
       <c r="N30" s="28" t="s">
         <v>27</v>
       </c>
@@ -3167,7 +3043,7 @@
       <c r="E31" s="43"/>
       <c r="F31" s="40"/>
       <c r="G31" s="17" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="H31" s="29" t="s">
         <v>27</v>
@@ -3180,9 +3056,7 @@
       <c r="L31" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="M31" s="17" t="s">
-        <v>133</v>
-      </c>
+      <c r="M31" s="17"/>
       <c r="N31" s="29" t="s">
         <v>27</v>
       </c>
@@ -3210,7 +3084,7 @@
       </c>
       <c r="F32" s="41"/>
       <c r="G32" s="15" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="H32" s="27" t="s">
         <v>27</v>
@@ -3223,9 +3097,7 @@
       <c r="L32" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="M32" s="15" t="s">
-        <v>134</v>
-      </c>
+      <c r="M32" s="15"/>
       <c r="N32" s="27" t="s">
         <v>27</v>
       </c>
@@ -3245,7 +3117,7 @@
       <c r="E33" s="43"/>
       <c r="F33" s="43"/>
       <c r="G33" s="17" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="H33" s="29" t="s">
         <v>27</v>
@@ -3258,9 +3130,7 @@
       <c r="L33" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="M33" s="17" t="s">
-        <v>135</v>
-      </c>
+      <c r="M33" s="17"/>
       <c r="N33" s="29" t="s">
         <v>27</v>
       </c>
@@ -3288,7 +3158,7 @@
       </c>
       <c r="F34" s="41"/>
       <c r="G34" s="15" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="H34" s="27" t="s">
         <v>27</v>
@@ -3301,9 +3171,7 @@
       <c r="L34" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="M34" s="15" t="s">
-        <v>136</v>
-      </c>
+      <c r="M34" s="15"/>
       <c r="N34" s="27" t="s">
         <v>27</v>
       </c>
@@ -3323,7 +3191,7 @@
       <c r="E35" s="42"/>
       <c r="F35" s="42"/>
       <c r="G35" s="1" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="H35" s="28" t="s">
         <v>27</v>
@@ -3336,9 +3204,7 @@
       <c r="L35" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M35" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="M35" s="1"/>
       <c r="N35" s="28" t="s">
         <v>27</v>
       </c>
@@ -3358,7 +3224,7 @@
       <c r="E36" s="43"/>
       <c r="F36" s="43"/>
       <c r="G36" s="17" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="H36" s="29" t="s">
         <v>27</v>
@@ -3371,9 +3237,7 @@
       <c r="L36" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="M36" s="17" t="s">
-        <v>138</v>
-      </c>
+      <c r="M36" s="17"/>
       <c r="N36" s="29" t="s">
         <v>27</v>
       </c>
@@ -3387,14 +3251,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="44">
     <mergeCell ref="F34:F36"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="B34:B36"/>
     <mergeCell ref="C34:C36"/>
     <mergeCell ref="D34:D36"/>
     <mergeCell ref="E34:E36"/>
-    <mergeCell ref="M16:R16"/>
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="D32:D33"/>
     <mergeCell ref="E32:E33"/>

--- a/TrackList.xlsx
+++ b/TrackList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Team-Code_Life\mefado-ui-design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E884F5C9-5141-4639-A05B-09D9E825EE7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4B4D8C-A81D-4DF2-BEB1-95043B8531E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="1" xr2:uid="{279BB581-13DC-4C67-A208-ECEAEC5F3134}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="116">
   <si>
     <t>Outcomes</t>
   </si>
@@ -397,6 +397,12 @@
   </si>
   <si>
     <t>Xem DS các bài đăng (map view)</t>
+  </si>
+  <si>
+    <t>OUT03-01-D</t>
+  </si>
+  <si>
+    <t>OUT03-02-D</t>
   </si>
 </sst>
 </file>
@@ -768,15 +774,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -786,21 +801,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -838,12 +850,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1979,8 +1985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95DB2D2-227C-4DF4-891D-B90556287239}">
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="52.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2014,35 +2020,35 @@
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="48" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="48" t="s">
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="50"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="52"/>
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="54"/>
+      <c r="B3" s="56"/>
       <c r="C3" s="7" t="s">
         <v>13</v>
       </c>
@@ -2094,19 +2100,19 @@
       <c r="S3" s="1"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="53"/>
+      <c r="F4" s="55"/>
       <c r="G4" s="9" t="s">
         <v>76</v>
       </c>
@@ -2132,11 +2138,11 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="59"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="52"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="54"/>
       <c r="G5" s="11" t="s">
         <v>77</v>
       </c>
@@ -2162,19 +2168,19 @@
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="51"/>
+      <c r="F6" s="53"/>
       <c r="G6" s="13" t="s">
         <v>78</v>
       </c>
@@ -2200,11 +2206,11 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="59"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="52"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="54"/>
       <c r="G7" s="11" t="s">
         <v>79</v>
       </c>
@@ -2233,16 +2239,16 @@
       <c r="B8" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="41"/>
+      <c r="F8" s="35"/>
       <c r="G8" s="15" t="s">
         <v>80</v>
       </c>
@@ -2255,12 +2261,16 @@
       <c r="L8" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="M8" s="13"/>
+      <c r="M8" s="15" t="s">
+        <v>114</v>
+      </c>
       <c r="N8" s="27"/>
       <c r="O8" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="P8" s="27"/>
+      <c r="P8" s="27" t="s">
+        <v>108</v>
+      </c>
       <c r="Q8" s="27"/>
       <c r="R8" s="16" t="s">
         <v>62</v>
@@ -2268,10 +2278,10 @@
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="45"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="37"/>
       <c r="G9" s="17" t="s">
         <v>81</v>
       </c>
@@ -2284,10 +2294,14 @@
       <c r="L9" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="M9" s="11"/>
+      <c r="M9" s="17" t="s">
+        <v>115</v>
+      </c>
       <c r="N9" s="29"/>
       <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
+      <c r="P9" s="29" t="s">
+        <v>108</v>
+      </c>
       <c r="Q9" s="29"/>
       <c r="R9" s="18" t="s">
         <v>63</v>
@@ -2297,16 +2311,16 @@
       <c r="B10" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="41"/>
+      <c r="F10" s="35"/>
       <c r="G10" s="15" t="s">
         <v>82</v>
       </c>
@@ -2334,10 +2348,10 @@
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="45"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="37"/>
       <c r="G11" s="17" t="s">
         <v>83</v>
       </c>
@@ -2395,19 +2409,19 @@
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="41"/>
+      <c r="D13" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="35"/>
       <c r="G13" s="15" t="s">
         <v>85</v>
       </c>
@@ -2439,11 +2453,11 @@
       <c r="S13" s="1"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="36"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
       <c r="G14" s="1" t="s">
         <v>86</v>
       </c>
@@ -2473,8 +2487,8 @@
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="36"/>
-      <c r="C15" s="39"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="42"/>
       <c r="D15" s="6" t="s">
         <v>27</v>
       </c>
@@ -2512,8 +2526,8 @@
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="36"/>
-      <c r="C16" s="39"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="42"/>
       <c r="D16" s="6" t="s">
         <v>27</v>
       </c>
@@ -2544,8 +2558,8 @@
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="36"/>
-      <c r="C17" s="39"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="42"/>
       <c r="D17" s="6" t="s">
         <v>27</v>
       </c>
@@ -2581,8 +2595,8 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="37"/>
-      <c r="C18" s="40"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="43"/>
       <c r="D18" s="24" t="s">
         <v>27</v>
       </c>
@@ -2661,19 +2675,19 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="38"/>
+      <c r="D20" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="41"/>
       <c r="G20" s="15" t="s">
         <v>91</v>
       </c>
@@ -2703,11 +2717,11 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="39"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="42"/>
       <c r="G21" s="1" t="s">
         <v>92</v>
       </c>
@@ -2737,11 +2751,11 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="39"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="42"/>
       <c r="G22" s="1" t="s">
         <v>93</v>
       </c>
@@ -2771,11 +2785,11 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="39"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="42"/>
       <c r="G23" s="1" t="s">
         <v>94</v>
       </c>
@@ -2805,11 +2819,11 @@
       <c r="S23" s="1"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B24" s="36"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="39"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="42"/>
       <c r="G24" s="1" t="s">
         <v>95</v>
       </c>
@@ -2838,11 +2852,11 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="36"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="39"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="42"/>
       <c r="G25" s="1" t="s">
         <v>96</v>
       </c>
@@ -2872,11 +2886,11 @@
       <c r="S25" s="1"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="36"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="39"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="42"/>
       <c r="G26" s="1" t="s">
         <v>97</v>
       </c>
@@ -2905,11 +2919,11 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B27" s="36"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="39"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="42"/>
       <c r="G27" s="1" t="s">
         <v>98</v>
       </c>
@@ -2938,11 +2952,11 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B28" s="36"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="39"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="42"/>
       <c r="G28" s="1" t="s">
         <v>99</v>
       </c>
@@ -2971,11 +2985,11 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B29" s="36"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="39"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="42"/>
       <c r="G29" s="1" t="s">
         <v>100</v>
       </c>
@@ -3004,11 +3018,11 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="36"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="39"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="42"/>
       <c r="G30" s="1" t="s">
         <v>101</v>
       </c>
@@ -3037,11 +3051,11 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B31" s="37"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="40"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="43"/>
       <c r="G31" s="17" t="s">
         <v>102</v>
       </c>
@@ -3070,19 +3084,19 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="38" t="s">
+      <c r="C32" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="F32" s="41"/>
+      <c r="D32" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="35"/>
       <c r="G32" s="15" t="s">
         <v>103</v>
       </c>
@@ -3111,11 +3125,11 @@
       </c>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B33" s="37"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
       <c r="G33" s="17" t="s">
         <v>104</v>
       </c>
@@ -3144,19 +3158,19 @@
       </c>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="F34" s="41"/>
+      <c r="D34" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="35"/>
       <c r="G34" s="15" t="s">
         <v>105</v>
       </c>
@@ -3185,11 +3199,11 @@
       </c>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B35" s="36"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
       <c r="G35" s="1" t="s">
         <v>106</v>
       </c>
@@ -3218,11 +3232,11 @@
       </c>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B36" s="37"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
       <c r="G36" s="17" t="s">
         <v>107</v>
       </c>
@@ -3252,22 +3266,13 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F20:F31"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D20:D31"/>
+    <mergeCell ref="E20:E31"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="B13:B18"/>
     <mergeCell ref="M2:R2"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="F4:F5"/>
@@ -3279,6 +3284,12 @@
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F20:F31"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="F13:F14"/>
@@ -3289,13 +3300,16 @@
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="B20:B31"/>
     <mergeCell ref="C20:C31"/>
-    <mergeCell ref="D20:D31"/>
-    <mergeCell ref="E20:E31"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
